--- a/EXELS/RegistraCarrera.xlsx
+++ b/EXELS/RegistraCarrera.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VisualProg\PRUBAS Funcionales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VisualProg\PRUBAS Funcionales RESI\EXELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77B3102-0D0A-476E-B779-0FBF2C62DD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B93701C-1404-425D-AEDE-5D9C0162ACC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{947B47C3-8618-4FEC-A9ED-74542C012D18}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{947B47C3-8618-4FEC-A9ED-74542C012D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t xml:space="preserve">Numero de Control </t>
   </si>
@@ -45,18 +45,12 @@
     <t>car0012023</t>
   </si>
   <si>
-    <t>Ingenieria en Sistemas Computacionales</t>
-  </si>
-  <si>
     <t>Nueve</t>
   </si>
   <si>
     <t>car0022023</t>
   </si>
   <si>
-    <t>Ingenieria en Electromecanica</t>
-  </si>
-  <si>
     <t>Nombre de Carrera</t>
   </si>
   <si>
@@ -67,13 +61,34 @@
   </si>
   <si>
     <t>car0052023</t>
+  </si>
+  <si>
+    <t>Contador Publico</t>
+  </si>
+  <si>
+    <t>car0062023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniería en Sistemas Computacionales </t>
+  </si>
+  <si>
+    <t>Ingeniería en Electromecánica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingeniería Industrial </t>
+  </si>
+  <si>
+    <t>Ingeniería en Gestión Empresarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energías Renovables </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +100,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,9 +132,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +457,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -456,56 +483,73 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -515,5 +559,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>